--- a/Users Loads11.xlsx
+++ b/Users Loads11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.274111377027452</v>
+        <v>0.6814055801624082</v>
       </c>
       <c r="C2" t="n">
-        <v>5.710554735830922</v>
+        <v>3.401015868564873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2551101661736623</v>
+        <v>0.3759440319336553</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.154022235752191</v>
+        <v>0.9920577777208051</v>
       </c>
       <c r="C3" t="n">
-        <v>5.845469932666769</v>
+        <v>4.502313395512299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.435272690034723</v>
+        <v>0.5248574106224452</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.358763903068975</v>
+        <v>1.530575011217978</v>
       </c>
       <c r="C4" t="n">
-        <v>12.05333108276506</v>
+        <v>1.78931142644485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2754638125532662</v>
+        <v>0.3469715541095292</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.277179565580568</v>
+        <v>1.562204315793309</v>
       </c>
       <c r="C5" t="n">
-        <v>2.902248944517579</v>
+        <v>5.389779838703333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3583221215900028</v>
+        <v>0.4951294778370649</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.441159763595944</v>
+        <v>1.650316467318802</v>
       </c>
       <c r="C6" t="n">
-        <v>4.688474288100694</v>
+        <v>5.526644065097045</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1801451906218556</v>
+        <v>0.9405228522138731</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.295721496144478</v>
+        <v>3.269373223725914</v>
       </c>
       <c r="C7" t="n">
-        <v>4.85497678451541</v>
+        <v>2.176765992258951</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2979385674290562</v>
+        <v>0.4179740018012792</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.564703607583788</v>
+        <v>3.293863067932194</v>
       </c>
       <c r="C8" t="n">
-        <v>7.455426858990903</v>
+        <v>4.777777540924388</v>
       </c>
       <c r="D8" t="n">
-        <v>0.439370870628104</v>
+        <v>0.33050495304748</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.06942871227084</v>
+        <v>3.984509550778144</v>
       </c>
       <c r="C9" t="n">
-        <v>12.61134399108003</v>
+        <v>7.293005793772363</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3527327387862061</v>
+        <v>0.9221597227627879</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.717897375247153</v>
+        <v>4.558101110349098</v>
       </c>
       <c r="C10" t="n">
-        <v>6.998873869448445</v>
+        <v>4.476078857215217</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2729181242972916</v>
+        <v>0.565593486495918</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.888427385159378</v>
+        <v>4.726911344806706</v>
       </c>
       <c r="C11" t="n">
-        <v>2.52991683062978</v>
+        <v>3.217979901992122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2062184346185506</v>
+        <v>0.2489708595635405</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.14010154592329</v>
+        <v>4.999671039187233</v>
       </c>
       <c r="C12" t="n">
-        <v>8.873256924661925</v>
+        <v>3.676067858778622</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3409196494414139</v>
+        <v>0.1811135922674664</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.60224101786876</v>
+        <v>5.122043962825247</v>
       </c>
       <c r="C13" t="n">
-        <v>6.472963201963336</v>
+        <v>5.168844790159067</v>
       </c>
       <c r="D13" t="n">
-        <v>0.292492857464944</v>
+        <v>0.807955028202716</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.98980681494331</v>
+        <v>5.802302016588548</v>
       </c>
       <c r="C14" t="n">
-        <v>6.188221628127384</v>
+        <v>3.822400927651207</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1460793841985001</v>
+        <v>0.5671991295161948</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.88998575790702</v>
+        <v>6.14450187553685</v>
       </c>
       <c r="C15" t="n">
-        <v>5.105696844102197</v>
+        <v>2.323427176707708</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2589266675319266</v>
+        <v>0.5375835308070814</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.18933624327203</v>
+        <v>7.481598202653696</v>
       </c>
       <c r="C16" t="n">
-        <v>2.715516183754377</v>
+        <v>5.462761713227094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1186149919678137</v>
+        <v>0.4519660695443357</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7545963501819</v>
+        <v>8.007962533579107</v>
       </c>
       <c r="C17" t="n">
-        <v>4.049913234672957</v>
+        <v>3.927805648581622</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1238231034625961</v>
+        <v>0.6916128795495669</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.3517604072907</v>
+        <v>8.281968519156781</v>
       </c>
       <c r="C18" t="n">
-        <v>10.84442040141512</v>
+        <v>4.728392264401618</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3563025262517475</v>
+        <v>0.4242139294344746</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.9459416719018</v>
+        <v>9.113399896720443</v>
       </c>
       <c r="C19" t="n">
-        <v>4.316944291583338</v>
+        <v>5.673983631300191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1550114573479361</v>
+        <v>0.3908427755879862</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.98716729821281</v>
+        <v>9.11384987868307</v>
       </c>
       <c r="C20" t="n">
-        <v>3.604265229749687</v>
+        <v>9.3212296653811</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1101006328803272</v>
+        <v>0.3223871446968393</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21.98808422968196</v>
+        <v>9.717327757765107</v>
       </c>
       <c r="C21" t="n">
-        <v>5.607825828362356</v>
+        <v>3.600864182023503</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2659109103037929</v>
+        <v>0.5402315045628179</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22.20920524429581</v>
+        <v>10.72666695814122</v>
       </c>
       <c r="C22" t="n">
-        <v>9.494006410130282</v>
+        <v>7.088747734709157</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5173653521097129</v>
+        <v>0.6307853106807174</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22.39917015218826</v>
+        <v>11.49906764281286</v>
       </c>
       <c r="C23" t="n">
-        <v>7.626103907549389</v>
+        <v>9.931481216725764</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3030130212585677</v>
+        <v>0.3699275265693349</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22.40277242812432</v>
+        <v>12.07258260143591</v>
       </c>
       <c r="C24" t="n">
-        <v>7.164908259747726</v>
+        <v>7.4483065597226</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3840452847175857</v>
+        <v>0.5368876950846209</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22.52546353344058</v>
+        <v>12.66513336534048</v>
       </c>
       <c r="C25" t="n">
-        <v>8.941129805068323</v>
+        <v>6.065992652341412</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2873450634843837</v>
+        <v>0.249224318336971</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23.10020426804914</v>
+        <v>12.92777565700514</v>
       </c>
       <c r="C26" t="n">
-        <v>5.810318631986628</v>
+        <v>4.727773189892988</v>
       </c>
       <c r="D26" t="n">
-        <v>0.481916820436837</v>
+        <v>0.5790565273811477</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.1678883838654</v>
+        <v>13.16284062389608</v>
       </c>
       <c r="C27" t="n">
-        <v>6.499588436342482</v>
+        <v>2.126544535962057</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3202605210248565</v>
+        <v>0.3838388544278796</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24.79523163212781</v>
+        <v>16.30983352363468</v>
       </c>
       <c r="C28" t="n">
-        <v>3.971556561914502</v>
+        <v>5.547629696431714</v>
       </c>
       <c r="D28" t="n">
-        <v>0.083883190912401</v>
+        <v>0.3767875610137016</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.21291010223627</v>
+        <v>17.15983182874623</v>
       </c>
       <c r="C29" t="n">
-        <v>2.899924698506273</v>
+        <v>3.466773935160026</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1703034577037524</v>
+        <v>0.5476324445531565</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.46975892960865</v>
+        <v>17.41619687363225</v>
       </c>
       <c r="C30" t="n">
-        <v>8.31592484239038</v>
+        <v>1.719593303802813</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2650604318229295</v>
+        <v>0.2380972214778227</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.83845794074358</v>
+        <v>17.66391607583157</v>
       </c>
       <c r="C31" t="n">
-        <v>6.64562566861517</v>
+        <v>5.251798193948304</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4964651866352731</v>
+        <v>0.5850997718637484</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>28.57400331616088</v>
+        <v>17.95974640725971</v>
       </c>
       <c r="C32" t="n">
-        <v>11.37408443510244</v>
+        <v>6.746284645365536</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2323052355495596</v>
+        <v>0.2716700167569241</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.4798184639012</v>
+        <v>18.5672031136374</v>
       </c>
       <c r="C33" t="n">
-        <v>4.717386745783815</v>
+        <v>2.776025569129259</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2306057071678393</v>
+        <v>0.4189070377252984</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31.22345225871778</v>
+        <v>18.95793551327859</v>
       </c>
       <c r="C34" t="n">
-        <v>3.314353931693179</v>
+        <v>8.098226063149964</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3428762115059858</v>
+        <v>0.2939718633062341</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31.39636500080763</v>
+        <v>19.16439667159435</v>
       </c>
       <c r="C35" t="n">
-        <v>4.884562563556289</v>
+        <v>5.125849629057752</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1944605455073641</v>
+        <v>0.5531869780220732</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>31.70516289587106</v>
+        <v>20.03730624003271</v>
       </c>
       <c r="C36" t="n">
-        <v>6.250716701712751</v>
+        <v>2.387441844945571</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2645760799270355</v>
+        <v>0.5948375117155524</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.94183933184669</v>
+        <v>20.4663327596302</v>
       </c>
       <c r="C37" t="n">
-        <v>5.573799180830781</v>
+        <v>3.863494049048597</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4593002346777657</v>
+        <v>0.504186157927254</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.3785161576461</v>
+        <v>21.03260319979285</v>
       </c>
       <c r="C38" t="n">
-        <v>7.590027713457665</v>
+        <v>1.468676792451328</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2981217635144011</v>
+        <v>0.2602542419042296</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35.48385858243667</v>
+        <v>21.16374892552617</v>
       </c>
       <c r="C39" t="n">
-        <v>8.950946897891562</v>
+        <v>6.605966606992014</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1207402230422164</v>
+        <v>0.5088273307592821</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.67853139861275</v>
+        <v>21.54661125878723</v>
       </c>
       <c r="C40" t="n">
-        <v>7.085090811453812</v>
+        <v>4.704509694999178</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2402814016579614</v>
+        <v>0.7433651615075286</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>36.79801358945961</v>
+        <v>22.05293679295843</v>
       </c>
       <c r="C41" t="n">
-        <v>5.413584359717859</v>
+        <v>3.812254642875751</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08025483514017527</v>
+        <v>0.4247547462509499</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>37.15687833297019</v>
+        <v>22.73040930975562</v>
       </c>
       <c r="C42" t="n">
-        <v>7.89657980361345</v>
+        <v>6.06125235936325</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3232832120666557</v>
+        <v>0.7203335159156813</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>37.53553288274045</v>
+        <v>23.32581413852944</v>
       </c>
       <c r="C43" t="n">
-        <v>7.139048267356182</v>
+        <v>2.055314505147465</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5451878918065431</v>
+        <v>0.3686633915115263</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>37.60204845871137</v>
+        <v>23.7427745501069</v>
       </c>
       <c r="C44" t="n">
-        <v>9.274768897373482</v>
+        <v>2.236176146620914</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5527568956465816</v>
+        <v>0.3582076918086139</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.87961648574558</v>
+        <v>24.25632390038566</v>
       </c>
       <c r="C45" t="n">
-        <v>9.260768584611466</v>
+        <v>5.661459502393575</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2537950172327614</v>
+        <v>0.369474960898948</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42.19495760088883</v>
+        <v>25.09890493607657</v>
       </c>
       <c r="C46" t="n">
-        <v>7.35045457369987</v>
+        <v>2.613639587077178</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3255127699335136</v>
+        <v>0.5650152969184314</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>43.23531797542057</v>
+        <v>26.6508622248456</v>
       </c>
       <c r="C47" t="n">
-        <v>7.527979259704237</v>
+        <v>2.592388020637464</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3016871378450273</v>
+        <v>0.4061759811330026</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46.21828487794041</v>
+        <v>27.62784098756759</v>
       </c>
       <c r="C48" t="n">
-        <v>3.478272899478641</v>
+        <v>5.623963043984186</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2969758332152139</v>
+        <v>0.4672707727861294</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46.78043819450342</v>
+        <v>28.14822789940884</v>
       </c>
       <c r="C49" t="n">
-        <v>3.087304203922293</v>
+        <v>5.346399368466271</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1498910616988473</v>
+        <v>0.4861448929628676</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>47.05276642485234</v>
+        <v>28.30690970791985</v>
       </c>
       <c r="C50" t="n">
-        <v>7.780445513957592</v>
+        <v>5.360858180813974</v>
       </c>
       <c r="D50" t="n">
-        <v>0.468794569691603</v>
+        <v>0.621176844832477</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>47.10626111467599</v>
+        <v>29.393308585288</v>
       </c>
       <c r="C51" t="n">
-        <v>6.987754153793389</v>
+        <v>4.504677433061072</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2235688439133721</v>
+        <v>0.6089023317606324</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47.78536462628819</v>
+        <v>29.78544158759587</v>
       </c>
       <c r="C52" t="n">
-        <v>5.44508409087522</v>
+        <v>7.419906243332931</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3813027157172254</v>
+        <v>0.7792613603646684</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49.04635484415417</v>
+        <v>30.77120850435794</v>
       </c>
       <c r="C53" t="n">
-        <v>3.778669788006674</v>
+        <v>1.660531303530617</v>
       </c>
       <c r="D53" t="n">
-        <v>0.114753704282718</v>
+        <v>0.3909491871568654</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>49.79518793779376</v>
+        <v>31.20572498777702</v>
       </c>
       <c r="C54" t="n">
-        <v>8.360036319422592</v>
+        <v>7.487145299757679</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4874936534075828</v>
+        <v>0.7181274698426285</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>50.92262233683111</v>
+        <v>32.27721340021622</v>
       </c>
       <c r="C55" t="n">
-        <v>7.935575775982916</v>
+        <v>3.349861674259838</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3545155292399959</v>
+        <v>0.2738588671596803</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>52.8926519935907</v>
+        <v>32.28528805977524</v>
       </c>
       <c r="C56" t="n">
-        <v>9.062404042068515</v>
+        <v>6.92231402533576</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5128597227753247</v>
+        <v>0.4483697120254004</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>54.09967025785848</v>
+        <v>32.48694171582682</v>
       </c>
       <c r="C57" t="n">
-        <v>9.082710558420152</v>
+        <v>4.170191666932348</v>
       </c>
       <c r="D57" t="n">
-        <v>0.199043449721141</v>
+        <v>0.3925142975488759</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>55.14029084344955</v>
+        <v>33.38072278899553</v>
       </c>
       <c r="C58" t="n">
-        <v>7.370599257663605</v>
+        <v>4.331727254777801</v>
       </c>
       <c r="D58" t="n">
-        <v>0.165891815205129</v>
+        <v>0.2881204388067655</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>55.21198370111707</v>
+        <v>33.66032159868725</v>
       </c>
       <c r="C59" t="n">
-        <v>5.051551492528473</v>
+        <v>4.794783338108514</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2928863133331291</v>
+        <v>0.1624621490414451</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>55.51566498995462</v>
+        <v>34.09841680273575</v>
       </c>
       <c r="C60" t="n">
-        <v>6.27774385033893</v>
+        <v>5.428665058964497</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3529165751249445</v>
+        <v>0.7034827493105981</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55.76740749083511</v>
+        <v>35.30840508517798</v>
       </c>
       <c r="C61" t="n">
-        <v>6.997793333395133</v>
+        <v>4.437725677439951</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1501646932031247</v>
+        <v>0.6832060577527179</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>56.72053037814364</v>
+        <v>35.80384055501948</v>
       </c>
       <c r="C62" t="n">
-        <v>3.961054904156974</v>
+        <v>1.897834319969725</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2144820858305443</v>
+        <v>0.27383590057955</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>56.97267327359226</v>
+        <v>36.08765165317283</v>
       </c>
       <c r="C63" t="n">
-        <v>4.748815344767078</v>
+        <v>8.738739460756131</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3379402215450342</v>
+        <v>0.6238820435437895</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>58.09705177466393</v>
+        <v>36.70934159008726</v>
       </c>
       <c r="C64" t="n">
-        <v>3.67380842123607</v>
+        <v>4.799844478235333</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253395970690789</v>
+        <v>0.4325317101308519</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>59.28212691501751</v>
+        <v>36.76220410485581</v>
       </c>
       <c r="C65" t="n">
-        <v>6.125007319060834</v>
+        <v>5.735408855356656</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1706327604020034</v>
+        <v>0.4345545073905044</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>59.86194578271589</v>
+        <v>37.28019655635399</v>
       </c>
       <c r="C66" t="n">
-        <v>2.240767690588556</v>
+        <v>7.146323236670574</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2280014599181118</v>
+        <v>0.408908857027259</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>61.48989992104615</v>
+        <v>37.86744633302015</v>
       </c>
       <c r="C67" t="n">
-        <v>6.615772975999649</v>
+        <v>4.284070122199253</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5258153453313654</v>
+        <v>0.651672725780028</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>62.18397926021403</v>
+        <v>37.90200621660902</v>
       </c>
       <c r="C68" t="n">
-        <v>9.500698551213576</v>
+        <v>2.139499337630122</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3935811798221487</v>
+        <v>0.3426014176280367</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>63.13973666131422</v>
+        <v>38.13785843050671</v>
       </c>
       <c r="C69" t="n">
-        <v>6.291606604000864</v>
+        <v>5.445809655636753</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2227932082374703</v>
+        <v>0.7847296308472217</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>63.65777921383972</v>
+        <v>38.42898709446036</v>
       </c>
       <c r="C70" t="n">
-        <v>2.450853550955651</v>
+        <v>2.426743654659512</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1721302067673507</v>
+        <v>0.3001306791530925</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.87658430245705</v>
+        <v>38.57788364795514</v>
       </c>
       <c r="C71" t="n">
-        <v>9.321678114374777</v>
+        <v>3.503939737513405</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2795741754403555</v>
+        <v>0.5073949206045313</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>67.17952705325879</v>
+        <v>38.83498864684293</v>
       </c>
       <c r="C72" t="n">
-        <v>12.93707507086691</v>
+        <v>4.994101298891141</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4409647931666807</v>
+        <v>0.3718174098557352</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67.44288026944207</v>
+        <v>38.87795484722765</v>
       </c>
       <c r="C73" t="n">
-        <v>1.967342904458069</v>
+        <v>1.365725178577425</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1399716246825671</v>
+        <v>0.2327255196253756</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>69.08541175052021</v>
+        <v>39.85746149570405</v>
       </c>
       <c r="C74" t="n">
-        <v>2.846317958519935</v>
+        <v>4.697356064329466</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3589038067760905</v>
+        <v>0.3964465941190132</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>70.45156050771756</v>
+        <v>39.87946426393581</v>
       </c>
       <c r="C75" t="n">
-        <v>1.971356117087157</v>
+        <v>2.144949510291712</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2669828732554205</v>
+        <v>0.3638845425414104</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>74.0506867410131</v>
+        <v>39.89650800374829</v>
       </c>
       <c r="C76" t="n">
-        <v>7.38283383056241</v>
+        <v>4.292778007135535</v>
       </c>
       <c r="D76" t="n">
-        <v>0.177465667536204</v>
+        <v>0.5040352679214153</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>75.18374344175407</v>
+        <v>39.99713579014655</v>
       </c>
       <c r="C77" t="n">
-        <v>8.003380598582655</v>
+        <v>1.384812440337721</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2445862485342299</v>
+        <v>0.2918774746356189</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>75.40772011647255</v>
+        <v>40.45091585141638</v>
       </c>
       <c r="C78" t="n">
-        <v>8.987437468205824</v>
+        <v>4.981394594886806</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2245495082330742</v>
+        <v>0.5698704398078787</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>75.44841337618665</v>
+        <v>40.57656029595852</v>
       </c>
       <c r="C79" t="n">
-        <v>5.562883442781797</v>
+        <v>3.743180095292959</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3366785206048903</v>
+        <v>0.6398119085929704</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>75.81733284797333</v>
+        <v>40.70856199261036</v>
       </c>
       <c r="C80" t="n">
-        <v>12.76564502684613</v>
+        <v>3.078734061148823</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3719016897414213</v>
+        <v>0.3860838423184512</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>75.9879351922812</v>
+        <v>40.75326366067426</v>
       </c>
       <c r="C81" t="n">
-        <v>6.804787787566353</v>
+        <v>8.034094475761691</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2538495668260211</v>
+        <v>0.5578661467468888</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>76.04900929364749</v>
+        <v>40.84733226960454</v>
       </c>
       <c r="C82" t="n">
-        <v>7.724647910765021</v>
+        <v>2.598466431153895</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4574979781015074</v>
+        <v>0.1996264076767753</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76.48235083775025</v>
+        <v>41.26517562695597</v>
       </c>
       <c r="C83" t="n">
-        <v>3.679644694410948</v>
+        <v>2.733291138598665</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3064612370409669</v>
+        <v>0.25351727760862</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>77.25573864010821</v>
+        <v>41.67588149588441</v>
       </c>
       <c r="C84" t="n">
-        <v>7.954947100729265</v>
+        <v>2.976744787448374</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2325493753068958</v>
+        <v>0.2399221094391429</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>78.53645309319008</v>
+        <v>42.12778807409757</v>
       </c>
       <c r="C85" t="n">
-        <v>8.595655446047054</v>
+        <v>6.709246707900464</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3550882132011691</v>
+        <v>0.6368400475588825</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>79.19829462808315</v>
+        <v>42.22623125577442</v>
       </c>
       <c r="C86" t="n">
-        <v>3.756570078374643</v>
+        <v>5.977135463429255</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07761219667822222</v>
+        <v>0.4854121533991831</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>79.3695505828187</v>
+        <v>42.7406993749179</v>
       </c>
       <c r="C87" t="n">
-        <v>7.467368239409782</v>
+        <v>4.357318833210019</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3225799255478944</v>
+        <v>0.3618065486661012</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>80.24546429813346</v>
+        <v>43.09729633436613</v>
       </c>
       <c r="C88" t="n">
-        <v>3.447591471072724</v>
+        <v>4.283376548487715</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2900550935961183</v>
+        <v>0.2714330233886638</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>82.02340236735465</v>
+        <v>43.35494474932419</v>
       </c>
       <c r="C89" t="n">
-        <v>3.253118518784913</v>
+        <v>4.014216166343778</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3321732969035228</v>
+        <v>0.4638582904041005</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>82.26695245447877</v>
+        <v>43.66237733789033</v>
       </c>
       <c r="C90" t="n">
-        <v>8.501223448595223</v>
+        <v>8.050151421067685</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3251640546919326</v>
+        <v>0.6381556976776113</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>84.0837240783256</v>
+        <v>44.10151812150577</v>
       </c>
       <c r="C91" t="n">
-        <v>7.688453639856288</v>
+        <v>2.749191176852054</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1972257990775289</v>
+        <v>0.3086061371025244</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86.05689094467925</v>
+        <v>44.57739403929055</v>
       </c>
       <c r="C92" t="n">
-        <v>8.000733394402591</v>
+        <v>7.188721723890858</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1139584236154498</v>
+        <v>0.6044020869807565</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>87.01846131903467</v>
+        <v>44.61546233935323</v>
       </c>
       <c r="C93" t="n">
-        <v>7.927346222653616</v>
+        <v>6.87425544459221</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3065946454642018</v>
+        <v>0.672727878367039</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>87.1682443067739</v>
+        <v>45.44119394739623</v>
       </c>
       <c r="C94" t="n">
-        <v>5.251249737162655</v>
+        <v>5.252346772446455</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3341205414442247</v>
+        <v>0.297654763721065</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>87.96261053625265</v>
+        <v>46.42574576221401</v>
       </c>
       <c r="C95" t="n">
-        <v>6.801982599187457</v>
+        <v>3.445895839843518</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2637539273551279</v>
+        <v>0.5129677479367087</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>88.57485711126054</v>
+        <v>46.6209368157328</v>
       </c>
       <c r="C96" t="n">
-        <v>2.70114602421395</v>
+        <v>3.962862486584043</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2148151599129584</v>
+        <v>0.5386031413462964</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>89.19244683277199</v>
+        <v>47.28243408198653</v>
       </c>
       <c r="C97" t="n">
-        <v>7.76973729237024</v>
+        <v>3.757759464342036</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3735552612990009</v>
+        <v>0.5044381857969452</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>89.54594750605632</v>
+        <v>47.30426406790498</v>
       </c>
       <c r="C98" t="n">
-        <v>2.613382532656582</v>
+        <v>3.516344128555498</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110366611709691</v>
+        <v>0.2394641715652218</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>92.38487332091553</v>
+        <v>47.39286927772168</v>
       </c>
       <c r="C99" t="n">
-        <v>5.61003507834726</v>
+        <v>8.335069635544722</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4563398226611358</v>
+        <v>0.6517354920200527</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>92.43721165033315</v>
+        <v>47.61295511151375</v>
       </c>
       <c r="C100" t="n">
-        <v>14.28874646572727</v>
+        <v>4.316994048641692</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3372474198905616</v>
+        <v>0.3303666558599234</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>92.71758668483736</v>
+        <v>47.99285133044982</v>
       </c>
       <c r="C101" t="n">
-        <v>10.30687116621125</v>
+        <v>7.271852932725174</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3976717026763202</v>
+        <v>0.5096346537383791</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>93.95794382406594</v>
+        <v>48.62566991860783</v>
       </c>
       <c r="C102" t="n">
-        <v>11.43837740494615</v>
+        <v>6.086339725789085</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3804624844506806</v>
+        <v>0.4658564683726596</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>95.9191356731417</v>
+        <v>49.03786722003407</v>
       </c>
       <c r="C103" t="n">
-        <v>8.580544199846109</v>
+        <v>5.471254078019347</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4625053073051875</v>
+        <v>0.5235718941149804</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>96.90688710773276</v>
+        <v>49.87378765925145</v>
       </c>
       <c r="C104" t="n">
-        <v>5.986427005397908</v>
+        <v>9.318327081708494</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2629102546710997</v>
+        <v>0.5867287969698315</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>97.80205928116165</v>
+        <v>50.76320344177118</v>
       </c>
       <c r="C105" t="n">
-        <v>6.853008680831692</v>
+        <v>2.101007087407466</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4464643281800909</v>
+        <v>0.2631569083608312</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>97.8197743466732</v>
+        <v>51.12102882015647</v>
       </c>
       <c r="C106" t="n">
-        <v>5.288449118783777</v>
+        <v>2.094021395494646</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2226026006683093</v>
+        <v>0.2964176066659535</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>98.00374255069534</v>
+        <v>51.81339178857647</v>
       </c>
       <c r="C107" t="n">
-        <v>9.253730580842976</v>
+        <v>2.184673804433351</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1986599404204935</v>
+        <v>0.2273389817707786</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,1413 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>98.2510571360751</v>
+        <v>52.1067173716648</v>
       </c>
       <c r="C108" t="n">
-        <v>4.199832121920013</v>
+        <v>2.855823513197703</v>
       </c>
       <c r="D108" t="n">
-        <v>0.237928864608897</v>
+        <v>0.3249039592793695</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>52.51195241445227</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.849234351406484</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.7669156925619888</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>52.70672645112819</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.506479801992025</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.2319514369233008</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>53.59884694455566</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3.953184086298034</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.4595952734642416</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>54.54157451999605</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.923464639458174</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.353697240471926</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>55.11006372620486</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.342174090575154</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.472608875573419</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>55.21459124130347</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.98304109523364</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.7863492449784035</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>55.2909971409744</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.675362264348197</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5752441197292316</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>55.82628654994659</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.562617901019749</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.651744263509924</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>56.18718715850091</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.474199394125491</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4423653213795481</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>56.90651265287</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.699918607467457</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.457284780090664</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>58.05511021004038</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.555260473540737</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.233768037525769</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>58.16854896397246</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.605337429555679</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5536520225051611</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>58.51306551614372</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.428889985878939</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4837215883878923</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>58.70226851512991</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.017904655079321</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6273561374730908</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>59.03176233450855</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.571554651551262</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4343347134178176</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>59.11317205893722</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3.350260402068574</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4018275038400728</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>59.17915784445504</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.70454881405529</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.3965087306925664</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>59.61142277800357</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.313736338673835</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.3116940537562353</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>60.3628974519585</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.710123770624106</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5168767191215417</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>61.01787431675026</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.205715794589228</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.7221914742405705</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>61.11323360107416</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.812814521352682</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5480048248471986</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>62.198542829043</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.752711475149908</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1765017334875455</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>62.29545142865035</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.717191421151472</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.6024117265294283</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>62.38588049720297</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.348430317010591</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.4432302456456702</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>62.57655320599829</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.689408395238102</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.6725034561255022</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>63.18773937927516</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.067508564492057</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.4858339669142347</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>63.79559063150222</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.048296708327384</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.4610387819929589</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>65.37315801904856</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.412455392426802</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.535101565487016</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>65.7985901142914</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.699022788389232</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.694689946373082</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>66.0489825023302</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.436469050405558</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.4725621003725815</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>66.06217606814997</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.527947895267719</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2031879356688782</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>66.30334199562851</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.095887251399108</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6540708030868971</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67.06890668301196</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.599332359719788</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.4940642855072785</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>67.16274080785642</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3.003173326551111</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.2581826667624969</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>68.31222074387919</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.819044002842349</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.3188996459448811</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>70.30879844340346</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.226939175077396</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.3345349034814867</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>70.96703247860941</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.625417376922889</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.6522670891780086</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>71.05296113516381</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.403043048711337</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.3629076870706468</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>71.19560762361631</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.826078068877043</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.5263220979939142</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>72.12902163159288</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7.349998303101982</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4379740030341747</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>72.69570246670263</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.54413802253125</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.7331259852523936</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>74.49180964292952</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.729911282911024</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.2777426289734091</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>74.62654401589525</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.536953665062917</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.6481096343280895</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>75.36322023767403</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.486474012298596</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4779667981636139</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>75.83656416233842</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.375354405138263</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.5529390876496758</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>75.90792310565594</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.369927786745598</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.2513836841465293</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>76.3916785776337</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.857108019266337</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.5403768469306319</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>76.58068623961479</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.040345685907404</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.7918294701005468</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>76.76521734363101</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.735850151079872</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.4742679506178985</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>77.16761063147985</v>
+      </c>
+      <c r="C158" t="n">
+        <v>8.819861200727123</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.6670291320296854</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>77.2611598353983</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.340772970372423</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.4048516271484356</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>77.61720054198135</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5.203047708427136</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.5048919309852752</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>77.93755175847144</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.348724344204243</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.4516042358991925</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>78.88795263380939</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.128502357310462</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.6360355576367074</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>79.05294310315085</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.529153340704558</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.749746019491088</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>79.79255338119347</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.481644633575923</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.8620864341436514</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>80.15807770235861</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.59094910466198</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.7539857030499925</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>80.43520052697681</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.80683135583603</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.4623215993806751</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>80.5880675626306</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.909965078831548</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.2676852911117623</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>81.61042383580944</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.970664159172689</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.5627897925932331</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>82.69374305262846</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.920373725713781</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3619889641766615</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>82.72658547389328</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.768467425256961</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.7054543810437307</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>82.88771310638414</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.033725625624352</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.4993107377323264</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>83.20564822145218</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.904427961458185</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.2233162836000133</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>83.34512665117747</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.640572570044504</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3229328677643485</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>85.02946853002659</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.725840931946327</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.291698282856565</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>85.10348542285683</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.999525761843396</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1688088540867459</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>85.83259637639253</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.345372309581837</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4417189454163817</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>87.38992390731379</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.86690559944346</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4574794732969622</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>88.28423295281482</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.152780253848335</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.3318190552969253</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>88.83698690470806</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.967369409154767</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.2480098789148522</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>89.25571537979583</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.821811475662853</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1864498486867418</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>89.60340215957011</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.380749191501777</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.2256635412507681</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>89.92271863743386</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.670268689678853</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3529664935866612</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>89.97658139131312</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.733642595401943</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4878270850834437</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>90.66979980339954</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.249046562659982</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6828271649865552</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>91.38504338680173</v>
+      </c>
+      <c r="C185" t="n">
+        <v>7.351104204706898</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.641860738390843</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>93.53599882762738</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.7792155491981</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.2315534766002328</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>93.53805588738111</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.267523547169924</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1983110365914721</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>94.36952072767602</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.08950072119862</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.6419059103393653</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>94.55504123344495</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.356148339653894</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.4820894534097714</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>95.02546845200595</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.406816627755515</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.4079469421055845</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>95.07205545482221</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.873046037244174</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.3507108598312394</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>95.34081543753007</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.578441272568427</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.2794382120994091</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>95.82981969285494</v>
+      </c>
+      <c r="C193" t="n">
+        <v>7.043574682383119</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.4402097880841</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>95.83031763360027</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.12571715228814</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.2254757279655748</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>96.01163547343243</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.141629540317394</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.6000773301833483</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>96.09162612337705</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.447593789239328</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.1040287322157565</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>96.25628520409259</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.255606052318513</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.8026200011192738</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>96.99211241682346</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.330068596821077</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.4588645829679267</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>97.26144319751126</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.823864694937782</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.7146684953972009</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>97.28267623997256</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.363695862447671</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.3452778629794322</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>97.34938754984452</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.667653314490277</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.6508000148219353</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>97.39253285255941</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.759149973106331</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.2610418396489583</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>97.70295025530243</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.129828260638404</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.5891828085421458</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>98.05205202626637</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.61949020660835</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.4259641056950787</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>98.36710883561794</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.017357439769843</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3411610353036949</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>98.93884808628107</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.986602812658</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.3433307794784232</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>98.9617746292778</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.638532891588922</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.7116976787301242</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>99.34249498291771</v>
+      </c>
+      <c r="C208" t="n">
+        <v>7.816709161836091</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.8312100674775792</v>
       </c>
     </row>
   </sheetData>
